--- a/ModulYounga/dane.xlsx
+++ b/ModulYounga/dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\OneDrive\Desktop\FizykaLaby\ModulYounga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4DE045-B652-4ADB-873D-270FE4EB7059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D32A21-F649-4701-8650-822DB48F61A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2424,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2752,6 +2752,10 @@
       <c r="D16">
         <v>0.78</v>
       </c>
+      <c r="E16">
+        <f>AVERAGE(B16:D16)</f>
+        <v>0.76666666666666661</v>
+      </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2769,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <f>AVERAGE(H16:J16)</f>
+        <v>0.78666666666666674</v>
+      </c>
+    </row>
+    <row r="25" spans="10:19" x14ac:dyDescent="0.35">
       <c r="L25" t="s">
         <v>15</v>
       </c>
@@ -2773,7 +2783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="11:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.35">
       <c r="K26" t="s">
         <v>11</v>
       </c>
@@ -2801,7 +2811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="11:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:19" x14ac:dyDescent="0.35">
       <c r="K27" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="11:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:19" x14ac:dyDescent="0.35">
       <c r="L28">
         <v>0.99249339811698201</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>9.5263192039610775E-5</v>
       </c>
     </row>
-    <row r="29" spans="11:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:19" x14ac:dyDescent="0.35">
       <c r="L29">
         <v>528.86427898209286</v>
       </c>
@@ -2855,7 +2865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="11:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:19" x14ac:dyDescent="0.35">
       <c r="L30">
         <v>2.5050223214285711E-7</v>
       </c>
